--- a/TransactionStatusLookup.xlsx
+++ b/TransactionStatusLookup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SoapData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1055456F-6511-4445-9599-E909C070D13F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4499B30A-C8C9-4A5B-84CB-FF7A150E6488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="1170" windowWidth="20025" windowHeight="14565" activeTab="2" xr2:uid="{C4843EFA-4A09-4103-90F0-961CE8A4C71C}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{C4843EFA-4A09-4103-90F0-961CE8A4C71C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="123">
   <si>
     <t>Notes</t>
   </si>
@@ -395,6 +395,15 @@
   </si>
   <si>
     <t>8.5000</t>
+  </si>
+  <si>
+    <t>SEC</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>CCD</t>
   </si>
 </sst>
 </file>
@@ -962,6 +971,9 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -1162,16 +1174,19 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7075182-05B4-4009-9687-1CB44BFF4527}">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C10" sqref="C10"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1198,7 +1213,7 @@
     <col min="27" max="16384" width="41.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1277,8 +1292,11 @@
       <c r="Z1" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -1351,8 +1369,11 @@
       <c r="Z2" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="AA2" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>98</v>
       </c>
@@ -1425,8 +1446,11 @@
       <c r="Z3" s="1" t="s">
         <v>109</v>
       </c>
+      <c r="AA3" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
@@ -1492,6 +1516,9 @@
       </c>
       <c r="Z4" s="1" t="s">
         <v>119</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1503,5 +1530,8 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>